--- a/medicine/Premiers secours et secourisme/Canot_de_sauvetage/Canot_de_sauvetage.xlsx
+++ b/medicine/Premiers secours et secourisme/Canot_de_sauvetage/Canot_de_sauvetage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un canot de sauvetage, ou vedette de sauvetage, est un bateau conçu à sa construction pour porter assistance aux équipages des navires en difficulté ou en perdition. Il ne faut pas le confondre avec les embarcations de sauvetage (aussi appelées "canots de sauvetage") à bord d'un gros navire (paquebot, ...) qui ont pour fonction d'être un refuge pour évacuer l'équipage lors d'un sinistre (naufrage, incendie...).
 Le canot de sauvetage doit pouvoir naviguer dans des conditions de mer et de vent forts. Un canot apte à intervenir par tous temps doit être puissamment motorisé, pouvoir se redresser tout seul, être stable et étanche, être équipé de systèmes redondants pour faire face aux pannes et avoir un dessin de coque lui permettant de passer dans une mer difficile. Lorsque le bateau en détresse est un navire de taille importante (navire de commerce) la mission du canot de sauvetage se limite à la sauvegarde des équipages ; le navire est alors pris en charge par des remorqueurs.
@@ -512,9 +524,11 @@
           <t>Les canots de sauvetage en France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France le canot[1] de sauvetage est affecté à une station de sauvetage gérée par la Société nationale de sauvetage en mer (SNSM). Il est armé par des volontaires bénévoles.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France le canot de sauvetage est affecté à une station de sauvetage gérée par la Société nationale de sauvetage en mer (SNSM). Il est armé par des volontaires bénévoles.
 Les canots et vedettes de sauvetage sont spécialisés en fonction de leur capacité d'intervention. En France, la SNSM utilise la classification suivante :
 Canot tous temps pouvant sortir dans n'importe condition de vents et de mer (portant un numéro commençant par « 0 », leur coque est de couleur verte)
 Vedettes de 1re classe pouvant sortir jusqu'à un vent de force 9 (échelle de Beaufort) (portant un numéro commençant par « 1 », leur coque est de couleur bleue).
@@ -555,8 +569,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les canots de sauvetage à rames
-Il existait aussi des canots de sauvetage à rames dont deux sont classés aux monuments historiques :
+          <t>Les canots de sauvetage à rames</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existait aussi des canots de sauvetage à rames dont deux sont classés aux monuments historiques :
 le Benoît-Champy à Cayeux-sur-Mer ;
 le Papa Poydenot au Penmarc'h.
 Un troisième, identique, est visible dans la cour du Musée de la pêche de Concarneau et un autre, le Commandant Philippes de Kerhallet, de Roscoff au Musée national de la Marine de Port-Louis.
@@ -565,7 +584,43 @@
 			Musée de la pêche à Concarneau.
 			Le Papa Poydenot.
 			Le canot de sauvetage Philippes de Kerhallet en service à Roscoff entre 1897 et 1953.
-Les canots de sauvetage à moteur
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Canot_de_sauvetage</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Canot_de_sauvetage</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les canots de sauvetage à moteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Une sortie du bateau de sauvetage à moteur du Conquet, le Nalie Léon Drouin entre 1931 et 1943 (Musée national de la Marine de Port-Louis).
 			Corne de brume équipant le canot de sauvetage à moteur de Camaret.
 </t>
